--- a/data/trans_camb/IP2001-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 10,48</t>
+          <t>-8,27; 10,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 8,84</t>
+          <t>-10,18; 7,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -2,38</t>
+          <t>-18,7; -2,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 4,76</t>
+          <t>-11,63; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 13,05</t>
+          <t>-6,42; 15,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -9,66</t>
+          <t>-21,84; -9,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 5,25</t>
+          <t>-7,71; 4,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 8,28</t>
+          <t>-5,73; 8,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -7,29</t>
+          <t>-18,03; -7,42</t>
         </is>
       </c>
     </row>
@@ -1007,27 +1007,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 89,82</t>
+          <t>-41,64; 99,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 80,45</t>
+          <t>-50,86; 66,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,57; -8,08</t>
+          <t>-91,74; -0,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 49,19</t>
+          <t>-58,11; 50,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 109,09</t>
+          <t>-37,31; 135,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 45,3</t>
+          <t>-40,13; 40,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 70,81</t>
+          <t>-31,8; 66,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,56; -53,25</t>
+          <t>-95,15; -44,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,63</t>
+          <t>-0,1; 5,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,75</t>
+          <t>-0,25; 5,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,35</t>
+          <t>-4,15; 1,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,28</t>
+          <t>-1,24; 5,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,42</t>
+          <t>-0,68; 5,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -1,41</t>
+          <t>-6,91; -1,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,8</t>
+          <t>0,0; 4,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,84</t>
+          <t>0,51; 5,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,7</t>
+          <t>-4,53; -0,5</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 96,21</t>
+          <t>-1,91; 103,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 99,72</t>
+          <t>-4,57; 100,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 24,18</t>
+          <t>-49,3; 26,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 72,83</t>
+          <t>-11,72; 84,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 72,37</t>
+          <t>-7,1; 77,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,85; -17,96</t>
+          <t>-64,36; -13,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 69,78</t>
+          <t>0,34; 66,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 71,61</t>
+          <t>5,9; 73,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,78; -10,44</t>
+          <t>-50,82; -6,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 1,92</t>
+          <t>-6,56; 2,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,13</t>
+          <t>-4,38; 5,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,3</t>
+          <t>-4,32; 5,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,78</t>
+          <t>-3,4; 3,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,27</t>
+          <t>-1,52; 6,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,82</t>
+          <t>-2,31; 4,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,91</t>
+          <t>-4,03; 1,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,82</t>
+          <t>-1,59; 4,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,36</t>
+          <t>-2,03; 4,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,11; 49,22</t>
+          <t>-72,21; 54,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 133,08</t>
+          <t>-50,76; 117,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 117,27</t>
+          <t>-50,48; 143,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,69; 176,32</t>
+          <t>-66,21; 182,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 278,78</t>
+          <t>-29,99; 320,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 216,01</t>
+          <t>-47,12; 289,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 55,08</t>
+          <t>-57,43; 47,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 132,05</t>
+          <t>-27,11; 111,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 120,85</t>
+          <t>-31,75; 131,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,05</t>
+          <t>-0,8; 3,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,19</t>
+          <t>-0,77; 4,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,21</t>
+          <t>-4,25; 0,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,68</t>
+          <t>-1,61; 3,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,77</t>
+          <t>-0,7; 4,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -1,63</t>
+          <t>-6,21; -1,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,04</t>
+          <t>-0,59; 2,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,86</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -1,39</t>
+          <t>-4,57; -1,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 59,03</t>
+          <t>-9,28; 56,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 63,69</t>
+          <t>-8,77; 59,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 3,46</t>
+          <t>-46,7; 8,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 50,86</t>
+          <t>-16,63; 49,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 68,95</t>
+          <t>-7,65; 62,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,12; -20,58</t>
+          <t>-63,28; -25,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 41,42</t>
+          <t>-6,59; 38,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,35; 51,0</t>
+          <t>0,81; 50,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -18,37</t>
+          <t>-50,04; -14,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2001-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2001-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-15,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,85</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,69; 4,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,71; 13,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,93; -9,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,64; 10,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; 8,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,85; -1,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 5,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,77; 8,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,4; -7,43</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,15%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-58,57; 50,72</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-37,05; 132,66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,21; 102,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,86; 65,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,14; 2,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,36; 40,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,97; 60,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,63; -50,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,96</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,11</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,87</t>
+          <t>-2,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 10,88</t>
+          <t>-1,29; 5,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 7,87</t>
+          <t>-1,1; 5,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -2,39</t>
+          <t>-7,02; -1,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 4,8</t>
+          <t>-0,42; 5,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 15,14</t>
+          <t>-0,41; 6,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,84; -9,87</t>
+          <t>-4,24; 1,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 4,85</t>
+          <t>0,17; 4,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 8,29</t>
+          <t>0,34; 4,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -7,42</t>
+          <t>-4,75; -0,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-69,22%</t>
+          <t>-47,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,96%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-20,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-83,25%</t>
+          <t>-34,65%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 99,2</t>
+          <t>-13,51; 71,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 66,59</t>
+          <t>-10,5; 80,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,74; -0,1</t>
+          <t>-66,78; -17,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,11; 50,98</t>
+          <t>-4,76; 106,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 135,77</t>
+          <t>-6,55; 104,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,02; 22,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 40,92</t>
+          <t>1,55; 68,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 66,91</t>
+          <t>3,57; 69,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,15; -44,96</t>
+          <t>-53,4; -11,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,73</t>
+          <t>-3,25; 3,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,81</t>
+          <t>-1,15; 6,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,32</t>
+          <t>-2,09; 5,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,87</t>
+          <t>-6,87; 2,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,49</t>
+          <t>-4,36; 5,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -1,08</t>
+          <t>-4,29; 5,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,49</t>
+          <t>-3,5; 2,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,02</t>
+          <t>-1,77; 4,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; -0,5</t>
+          <t>-1,66; 4,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,78%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>-32,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,82%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-33,12%</t>
+          <t>23,79%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 103,54</t>
+          <t>-64,99; 203,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 100,96</t>
+          <t>-29,69; 336,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 26,54</t>
+          <t>-44,33; 281,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 84,19</t>
+          <t>-74,3; 62,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 77,74</t>
+          <t>-45,57; 114,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,36; -13,31</t>
+          <t>-47,76; 118,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 66,98</t>
+          <t>-55,51; 61,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 73,81</t>
+          <t>-27,19; 128,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,82; -6,31</t>
+          <t>-27,92; 123,55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-2,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 2,22</t>
+          <t>-1,54; 3,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 5,11</t>
+          <t>-0,77; 4,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,88</t>
+          <t>-6,37; -2,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,6</t>
+          <t>-0,79; 3,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 6,72</t>
+          <t>-0,8; 4,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,87</t>
+          <t>-4,4; 0,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,81</t>
+          <t>-0,57; 3,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,37</t>
+          <t>-0,05; 3,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,56</t>
+          <t>-4,39; -1,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>-48,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>67,15%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>-24,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-17,46%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>-36,26%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,21; 54,44</t>
+          <t>-16,21; 45,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 117,14</t>
+          <t>-7,86; 62,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 143,22</t>
+          <t>-65,01; -25,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,21; 182,67</t>
+          <t>-8,92; 58,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 320,53</t>
+          <t>-9,0; 61,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 289,06</t>
+          <t>-47,91; 6,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 47,19</t>
+          <t>-6,41; 41,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 111,88</t>
+          <t>-0,77; 48,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 131,95</t>
+          <t>-49,18; -17,38</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 3,87</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 4,15</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 0,38</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 3,52</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 4,66</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; -1,8</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 2,86</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,67</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; -1,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>17,89%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>21,67%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-24,74%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>24,4%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-46,51%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>23,02%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-35,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 56,69</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 59,0</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-46,7; 8,09</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 49,28</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 62,5</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-63,28; -25,36</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 38,08</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 50,89</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-50,04; -14,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
